--- a/RGB_IR Backlight 5x5/RGB-IR Backlight Combined RGB 5x5/Bubble Rig/J007017_RGB_IR_BOM.xlsx
+++ b/RGB_IR Backlight 5x5/RGB-IR Backlight Combined RGB 5x5/Bubble Rig/J007017_RGB_IR_BOM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS\ZLATIC\RGB LEDS\ECAD\J007017_RGB_IR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sawtelles\Documents\GitHub\RGB-IR LED Boards\RGB_IR Backlight 5x5\RGB-IR Backlight Combined RGB 5x5\Bubble Rig\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19EE2B9-B028-4250-8342-82A18331241B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23805" windowHeight="9405"/>
+    <workbookView xWindow="6000" yWindow="345" windowWidth="25395" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="J005794_RGB_IR" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,21 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">J005794_RGB_IR!$A$1:$H$25</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -525,7 +540,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -1015,7 +1030,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1024,28 +1039,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1057,10 +1051,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1418,7 +1412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1430,12 +1424,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="26" style="9" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="4" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" style="1" customWidth="1"/>
     <col min="9" max="10" width="8.7109375" style="3"/>
@@ -1443,28 +1437,28 @@
     <col min="12" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1484,23 +1478,23 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1515,28 +1509,28 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="I5" s="3">
@@ -1548,25 +1542,25 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="1">
         <v>256</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1581,25 +1575,25 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1613,29 +1607,29 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I8" s="3">
@@ -1645,33 +1639,33 @@
         <f t="shared" si="0"/>
         <v>8.84</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="5">
         <v>2756</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>93</v>
       </c>
       <c r="I9" s="3">
@@ -1683,28 +1677,28 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="1">
         <v>22</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="4">
         <v>0.1</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="I10" s="3">
@@ -1716,28 +1710,28 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>153</v>
       </c>
       <c r="I11" s="3">
@@ -1749,28 +1743,28 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I12" s="3">
@@ -1782,28 +1776,28 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="G13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I13" s="3">
@@ -1814,29 +1808,29 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="4">
         <v>100</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I14" s="3">
@@ -1847,29 +1841,29 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I15" s="3">
@@ -1881,28 +1875,28 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="1">
         <v>24</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J16" s="3">
@@ -1911,28 +1905,28 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="G17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I17" s="3">
@@ -1944,28 +1938,28 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="G18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I18" s="3">
@@ -1977,28 +1971,28 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="1">
         <v>4</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="G19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I19" s="3">
@@ -2009,29 +2003,29 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="11" t="s">
+      <c r="G20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>165</v>
       </c>
       <c r="I20" s="3">
@@ -2041,7 +2035,7 @@
         <f t="shared" si="0"/>
         <v>44.92</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="8">
         <f t="shared" ref="L20" si="3">A20*10</f>
         <v>40</v>
       </c>
@@ -2051,25 +2045,25 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="1">
         <v>12</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -2084,25 +2078,25 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="1">
         <v>4</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -2117,25 +2111,25 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="1">
         <v>4</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H23" t="s">
@@ -2150,25 +2144,25 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="1">
         <v>64</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H24" t="s">
@@ -2183,25 +2177,25 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="1">
         <v>12</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -2216,28 +2210,28 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="1" t="s">
         <v>90</v>
       </c>
       <c r="I26" s="3">
@@ -2248,29 +2242,29 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>1</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="G27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>127</v>
       </c>
       <c r="I27" s="3">
@@ -2280,33 +2274,33 @@
         <f t="shared" si="0"/>
         <v>4.33</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="5" t="s">
         <v>133</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="1" t="s">
         <v>132</v>
       </c>
       <c r="I28" s="3">
@@ -2316,33 +2310,33 @@
         <f t="shared" si="0"/>
         <v>1.58</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="1">
         <v>2</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="5" t="s">
         <v>139</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="1" t="s">
         <v>137</v>
       </c>
       <c r="I29" s="3">
@@ -2363,13 +2357,13 @@
       <c r="C30" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="6" t="s">
         <v>141</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2387,28 +2381,28 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="1">
         <v>4</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="1" t="s">
         <v>147</v>
       </c>
       <c r="I31" s="3">
